--- a/biology/Zoologie/Coucou_de_Klaas/Coucou_de_Klaas.xlsx
+++ b/biology/Zoologie/Coucou_de_Klaas/Coucou_de_Klaas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysococcyx klaas
 Le Coucou de Klaas (Chrysococcyx klaas) est une espèce d'oiseau de la famille des Cuculidae. C'est une espèce monotypique (non subdivisée en sous-espèces).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure un peu moins de 20 cm, est de couleur vert métallique sur le dessus et un peu sur le poitrail, le reste du dessous étant d’un blanc assez homogène et duveteux[1],[2]. La queue, plutôt longue, est barrée de noir sur le dessous (ou juste marquée)[3]. Les pattes sont assez plumeuses sur leur partie haute. La femelle diffère (dimorphisme sexuel) : elle a un dos barré vert et bronze, une tête brun-gris, et le dessous barré brun et blanc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure un peu moins de 20 cm, est de couleur vert métallique sur le dessus et un peu sur le poitrail, le reste du dessous étant d’un blanc assez homogène et duveteux,. La queue, plutôt longue, est barrée de noir sur le dessous (ou juste marquée). Les pattes sont assez plumeuses sur leur partie haute. La femelle diffère (dimorphisme sexuel) : elle a un dos barré vert et bronze, une tête brun-gris, et le dessous barré brun et blanc.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Afrique subsaharienne. C'est une espèce qui migre au sein du continent. Elle est largement répartie en Afrique de l’Ouest, de l’Est, du Sud, du Sud-Est, dans le bassin gabonais et semble un peu moins abondante en Afrique centrale.
 </t>
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son nom diffère dans plusieurs langues, notamment en :
 finnois : malakiittikäki « coucou malachite »
